--- a/xlsx/FR/CC_responsible_FR.xlsx
+++ b/xlsx/FR/CC_responsible_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Previous generations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The high income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each of us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [Country] government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great deal</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0978730212439396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0490488518149149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0203403033790165</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0158838165727572</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0074607481295635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.336085549122131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.155914807744901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.124576716097835</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.113345539015687</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0817566817460195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.27054060107907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.300061361775457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.338844453762021</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.280070843978154</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.206596729003742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.188423851091159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.251794494187439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.285210729515204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.313589348269796</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.341207425788467</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1070769774637</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.243180484477289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.231027797245924</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.277110452163606</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.362978415332208</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/CC_responsible_FR.xlsx
+++ b/xlsx/FR/CC_responsible_FR.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Each of us</t>
   </si>
   <si>
-    <t xml:space="preserve">The [Country] government</t>
+    <t xml:space="preserve">The [country] government</t>
   </si>
   <si>
     <t xml:space="preserve">Companies</t>
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0978730212439396</v>
+        <v>0.121408658727684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0490488518149149</v>
+        <v>0.0531758103632361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0203403033790165</v>
+        <v>0.0284951367847852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0158838165727572</v>
+        <v>0.0197060404795636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0074607481295635</v>
+        <v>0.0154205557427072</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.336085549122131</v>
+        <v>0.32051312219915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.155914807744901</v>
+        <v>0.151133422732027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.124576716097835</v>
+        <v>0.135651515945748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.113345539015687</v>
+        <v>0.117760751266726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0817566817460195</v>
+        <v>0.0805265521291187</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27054060107907</v>
+        <v>0.266727488648167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.300061361775457</v>
+        <v>0.291270380338136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.338844453762021</v>
+        <v>0.295808702613824</v>
       </c>
       <c r="E4" t="n">
-        <v>0.280070843978154</v>
+        <v>0.274904880639585</v>
       </c>
       <c r="F4" t="n">
-        <v>0.206596729003742</v>
+        <v>0.185031283767304</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188423851091159</v>
+        <v>0.181874269327495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.251794494187439</v>
+        <v>0.261059878005722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.285210729515204</v>
+        <v>0.297030008684534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.313589348269796</v>
+        <v>0.30861165729501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.341207425788467</v>
+        <v>0.346900510778663</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1070769774637</v>
+        <v>0.109476461097505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243180484477289</v>
+        <v>0.243360508560879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.231027797245924</v>
+        <v>0.243014635971109</v>
       </c>
       <c r="E6" t="n">
-        <v>0.277110452163606</v>
+        <v>0.279016670319115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.362978415332208</v>
+        <v>0.372121097582207</v>
       </c>
     </row>
   </sheetData>
